--- a/homework/43.xlsx
+++ b/homework/43.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6B946-BEE6-4178-BD7E-BC0EBE007CF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C1BD0C-EAB5-4F3B-8CBC-C01A0EECC3E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="1050" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="2235" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>either</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,42 @@
   </si>
   <si>
     <t>42.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So am I or I'm not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So can I or I can't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neither am I or I am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neither do i or I do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neither have I or I have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neither did I or I did</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So do I or I do not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So am(do) I or I'm(do) not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wasn't(didn't) or So was(did) I  例句中没有使用was</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -131,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,7 +515,7 @@
   <dimension ref="A3:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,79 +683,136 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C25" s="4"/>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="4"/>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C27" s="4"/>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C28" s="4"/>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C29" s="4"/>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C30" s="4"/>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="4"/>
+      <c r="B31" s="1">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" s="4"/>
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
